--- a/data/pca/factorExposure/factorExposure_2010-06-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-23.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01461572796077896</v>
+        <v>-0.01628961811123286</v>
       </c>
       <c r="C2">
-        <v>-0.003469462423067098</v>
+        <v>-0.0008185153891207882</v>
       </c>
       <c r="D2">
-        <v>0.01203992043467527</v>
+        <v>0.007851176748615352</v>
       </c>
       <c r="E2">
-        <v>0.008483182536813775</v>
+        <v>-0.002467285504402262</v>
       </c>
       <c r="F2">
-        <v>-0.02931859254327598</v>
+        <v>0.01342150568329956</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1216512919306825</v>
+        <v>-0.0950621987495564</v>
       </c>
       <c r="C4">
-        <v>-0.1053668005841187</v>
+        <v>-0.01780822874294553</v>
       </c>
       <c r="D4">
-        <v>-0.004808317935365576</v>
+        <v>0.08100931866238212</v>
       </c>
       <c r="E4">
-        <v>-0.1579338337523195</v>
+        <v>0.02744842808362928</v>
       </c>
       <c r="F4">
-        <v>-0.06433785344536104</v>
+        <v>-0.04022310665924861</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1316344636078124</v>
+        <v>-0.1519356731851185</v>
       </c>
       <c r="C6">
-        <v>-0.06583014516369441</v>
+        <v>-0.02444788525669764</v>
       </c>
       <c r="D6">
-        <v>0.001480062286293841</v>
+        <v>-0.02303521093233079</v>
       </c>
       <c r="E6">
-        <v>-0.07235132549399481</v>
+        <v>0.01432075635879454</v>
       </c>
       <c r="F6">
-        <v>0.002529696923248474</v>
+        <v>-0.03983768740135742</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07519115424586065</v>
+        <v>-0.06224714092899623</v>
       </c>
       <c r="C7">
-        <v>-0.08066410489402073</v>
+        <v>-0.0002958693786708782</v>
       </c>
       <c r="D7">
-        <v>0.01089159537930147</v>
+        <v>0.05192593707722602</v>
       </c>
       <c r="E7">
-        <v>-0.01237438976507202</v>
+        <v>0.01332233939261601</v>
       </c>
       <c r="F7">
-        <v>0.003583065481137411</v>
+        <v>-0.05810559221649754</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04077793766495266</v>
+        <v>-0.0598510509889308</v>
       </c>
       <c r="C8">
-        <v>-0.01575709246135938</v>
+        <v>0.01253365012055221</v>
       </c>
       <c r="D8">
-        <v>0.007924480875183318</v>
+        <v>0.02793958361483013</v>
       </c>
       <c r="E8">
-        <v>-0.09762935180692166</v>
+        <v>0.01183335740286882</v>
       </c>
       <c r="F8">
-        <v>-0.06189498887080078</v>
+        <v>0.02099580338457787</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08676217049712484</v>
+        <v>-0.0725257902218637</v>
       </c>
       <c r="C9">
-        <v>-0.08070338694233199</v>
+        <v>-0.01422938001703148</v>
       </c>
       <c r="D9">
-        <v>-0.02325452752266564</v>
+        <v>0.07910996357780754</v>
       </c>
       <c r="E9">
-        <v>-0.1274259254197774</v>
+        <v>0.02116648960528352</v>
       </c>
       <c r="F9">
-        <v>-0.05537859330552992</v>
+        <v>-0.06207902780882889</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1370983154960074</v>
+        <v>-0.09193752256129739</v>
       </c>
       <c r="C10">
-        <v>0.1764418523559576</v>
+        <v>-0.01370752526130967</v>
       </c>
       <c r="D10">
-        <v>0.00178938003838</v>
+        <v>-0.173443642391607</v>
       </c>
       <c r="E10">
-        <v>0.02650995536077437</v>
+        <v>-0.03526945853126007</v>
       </c>
       <c r="F10">
-        <v>0.02425610532816711</v>
+        <v>0.04978120343192474</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06670369226393909</v>
+        <v>-0.08840390675504034</v>
       </c>
       <c r="C11">
-        <v>-0.05923485157115752</v>
+        <v>-0.0133897836847927</v>
       </c>
       <c r="D11">
-        <v>-0.04693852778118261</v>
+        <v>0.1102478160011093</v>
       </c>
       <c r="E11">
-        <v>-0.09312539624452265</v>
+        <v>0.04153997977465431</v>
       </c>
       <c r="F11">
-        <v>-0.03611900928228283</v>
+        <v>-0.02689811025726561</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07183420609579</v>
+        <v>-0.09379068220564241</v>
       </c>
       <c r="C12">
-        <v>-0.06574213727434934</v>
+        <v>-0.01137774187148958</v>
       </c>
       <c r="D12">
-        <v>-0.05453854276752251</v>
+        <v>0.1167634762844714</v>
       </c>
       <c r="E12">
-        <v>-0.1123857392858125</v>
+        <v>0.03905801304402579</v>
       </c>
       <c r="F12">
-        <v>0.00314538644246376</v>
+        <v>-0.02857445216410042</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0409563682678508</v>
+        <v>-0.04427176059425245</v>
       </c>
       <c r="C13">
-        <v>-0.03899971262245457</v>
+        <v>-0.005046907062928404</v>
       </c>
       <c r="D13">
-        <v>0.02447182734679448</v>
+        <v>0.04386500009307998</v>
       </c>
       <c r="E13">
-        <v>-0.03541437703911008</v>
+        <v>-0.01466704623209446</v>
       </c>
       <c r="F13">
-        <v>-0.02383092520176991</v>
+        <v>-0.02002294797321596</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03931932495573959</v>
+        <v>-0.02199703004103278</v>
       </c>
       <c r="C14">
-        <v>-0.03670004604088749</v>
+        <v>-0.01511624649864957</v>
       </c>
       <c r="D14">
-        <v>-0.01184222083236429</v>
+        <v>0.02927216229417658</v>
       </c>
       <c r="E14">
-        <v>-0.05966131277225843</v>
+        <v>0.01502861284527083</v>
       </c>
       <c r="F14">
-        <v>-0.02665981478759244</v>
+        <v>-0.02744724587254467</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02378490264699785</v>
+        <v>-0.03257564278962251</v>
       </c>
       <c r="C15">
-        <v>-0.01554445847375859</v>
+        <v>-0.006160546917128984</v>
       </c>
       <c r="D15">
-        <v>0.07029321148326566</v>
+        <v>0.04124398627656955</v>
       </c>
       <c r="E15">
-        <v>-0.01487676936813318</v>
+        <v>0.007197762530168274</v>
       </c>
       <c r="F15">
-        <v>-0.03598368469616117</v>
+        <v>-0.03463640411857846</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07855442440282548</v>
+        <v>-0.0754315900750936</v>
       </c>
       <c r="C16">
-        <v>-0.07416870532953346</v>
+        <v>-0.005195390150413446</v>
       </c>
       <c r="D16">
-        <v>-0.0426024682902993</v>
+        <v>0.1146794388787059</v>
       </c>
       <c r="E16">
-        <v>-0.097419986777303</v>
+        <v>0.05650171062390828</v>
       </c>
       <c r="F16">
-        <v>-0.003043016844888757</v>
+        <v>-0.03503704367619383</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.017662257921119</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003985255217538178</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02137606347567258</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01021118325648275</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02527965945085704</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04755581815496011</v>
+        <v>-0.06146513618882848</v>
       </c>
       <c r="C20">
-        <v>-0.02406212687304779</v>
+        <v>-0.00288712298842641</v>
       </c>
       <c r="D20">
-        <v>0.03138942125765497</v>
+        <v>0.06810435404377711</v>
       </c>
       <c r="E20">
-        <v>-0.07411097145452972</v>
+        <v>0.05042911673579445</v>
       </c>
       <c r="F20">
-        <v>-0.004578741995413576</v>
+        <v>-0.03193910810565273</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03527717271118429</v>
+        <v>-0.03794232675296917</v>
       </c>
       <c r="C21">
-        <v>-0.02495456520071324</v>
+        <v>-0.008050759915350373</v>
       </c>
       <c r="D21">
-        <v>-0.02476767677326153</v>
+        <v>0.03395270393011709</v>
       </c>
       <c r="E21">
-        <v>-0.06263198380394017</v>
+        <v>-0.01283828553818872</v>
       </c>
       <c r="F21">
-        <v>-0.02506110406805278</v>
+        <v>0.01797583147957779</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05742765779051294</v>
+        <v>-0.0429505235352966</v>
       </c>
       <c r="C22">
-        <v>0.001256772819113331</v>
+        <v>-0.001086572780317067</v>
       </c>
       <c r="D22">
-        <v>0.6485336642217708</v>
+        <v>-0.0005357040282485744</v>
       </c>
       <c r="E22">
-        <v>-0.02842387388657729</v>
+        <v>0.03189888169043181</v>
       </c>
       <c r="F22">
-        <v>0.110873235384652</v>
+        <v>0.02384033248527905</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05840382320960948</v>
+        <v>-0.0430392859368692</v>
       </c>
       <c r="C23">
-        <v>-0.0005682936055022202</v>
+        <v>-0.001119761517145257</v>
       </c>
       <c r="D23">
-        <v>0.650817158720707</v>
+        <v>-0.0003127859589314074</v>
       </c>
       <c r="E23">
-        <v>-0.03378533752272932</v>
+        <v>0.03232787864230835</v>
       </c>
       <c r="F23">
-        <v>0.1097407124528074</v>
+        <v>0.02329765721958434</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.0772242880544903</v>
+        <v>-0.08190103105189712</v>
       </c>
       <c r="C24">
-        <v>-0.07308071995020655</v>
+        <v>-0.005408489137832216</v>
       </c>
       <c r="D24">
-        <v>-0.03532919052988639</v>
+        <v>0.1151877184056958</v>
       </c>
       <c r="E24">
-        <v>-0.09944502466519378</v>
+        <v>0.04494945622412823</v>
       </c>
       <c r="F24">
-        <v>-0.01284120830250411</v>
+        <v>-0.02751536709311198</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07688617154012538</v>
+        <v>-0.08618402613883866</v>
       </c>
       <c r="C25">
-        <v>-0.05586073159823275</v>
+        <v>-0.007332667100999062</v>
       </c>
       <c r="D25">
-        <v>-0.05977835318284376</v>
+        <v>0.1006180070268768</v>
       </c>
       <c r="E25">
-        <v>-0.1032860652702557</v>
+        <v>0.02704396908400631</v>
       </c>
       <c r="F25">
-        <v>-0.01429481342776938</v>
+        <v>-0.03708514940917124</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04160286713135142</v>
+        <v>-0.05647630723267518</v>
       </c>
       <c r="C26">
-        <v>-0.009705762187082733</v>
+        <v>-0.01581516708024754</v>
       </c>
       <c r="D26">
-        <v>0.01494910753888</v>
+        <v>0.03169552350332354</v>
       </c>
       <c r="E26">
-        <v>-0.08032463046770841</v>
+        <v>0.02233329171497461</v>
       </c>
       <c r="F26">
-        <v>0.04769994079963195</v>
+        <v>0.002010421597831211</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1586592596018984</v>
+        <v>-0.138439694997861</v>
       </c>
       <c r="C28">
-        <v>0.26910687204437</v>
+        <v>-0.01065590006517466</v>
       </c>
       <c r="D28">
-        <v>-0.01844540332464295</v>
+        <v>-0.2731938114917885</v>
       </c>
       <c r="E28">
-        <v>-0.02869383400773001</v>
+        <v>-0.0662080434638391</v>
       </c>
       <c r="F28">
-        <v>-0.007068370825247124</v>
+        <v>-0.04480548480671603</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03849940131149046</v>
+        <v>-0.02726647204594481</v>
       </c>
       <c r="C29">
-        <v>-0.03264316893522664</v>
+        <v>-0.009285866348322106</v>
       </c>
       <c r="D29">
-        <v>-0.01628477360516204</v>
+        <v>0.02813076570318335</v>
       </c>
       <c r="E29">
-        <v>-0.05596936515115952</v>
+        <v>0.00780875437480699</v>
       </c>
       <c r="F29">
-        <v>-0.02454468944270058</v>
+        <v>0.005794121727059203</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.07820824703236035</v>
+        <v>-0.06428711183987926</v>
       </c>
       <c r="C30">
-        <v>-0.06561333896455596</v>
+        <v>-0.007065879767819696</v>
       </c>
       <c r="D30">
-        <v>-0.02131404645418908</v>
+        <v>0.07594869239791507</v>
       </c>
       <c r="E30">
-        <v>-0.2267125213904474</v>
+        <v>0.02124291315049564</v>
       </c>
       <c r="F30">
-        <v>0.07910101103225892</v>
+        <v>-0.1236269397877237</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02660005602984726</v>
+        <v>-0.04853796897579588</v>
       </c>
       <c r="C31">
-        <v>-0.05750834503614296</v>
+        <v>-0.01533492701710028</v>
       </c>
       <c r="D31">
-        <v>0.003249518982443818</v>
+        <v>0.02856994754636849</v>
       </c>
       <c r="E31">
-        <v>-0.03990541079639139</v>
+        <v>0.026039766693644</v>
       </c>
       <c r="F31">
-        <v>-0.02041009961154328</v>
+        <v>0.002454085381944094</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05079283347925007</v>
+        <v>-0.04870437587502222</v>
       </c>
       <c r="C32">
-        <v>-0.01388103186164665</v>
+        <v>-0.001045960093726847</v>
       </c>
       <c r="D32">
-        <v>-0.04625091766045883</v>
+        <v>0.02639731978196649</v>
       </c>
       <c r="E32">
-        <v>-0.03001665426378863</v>
+        <v>0.02534770822630673</v>
       </c>
       <c r="F32">
-        <v>-0.09704862090362529</v>
+        <v>-0.005616352601704718</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09735651560972622</v>
+        <v>-0.09208545201007649</v>
       </c>
       <c r="C33">
-        <v>-0.08025540945013573</v>
+        <v>-0.01050877840994128</v>
       </c>
       <c r="D33">
-        <v>-0.02137129498308047</v>
+        <v>0.09011511802855564</v>
       </c>
       <c r="E33">
-        <v>-0.06295940764644035</v>
+        <v>0.04394249806082243</v>
       </c>
       <c r="F33">
-        <v>0.003372154214293736</v>
+        <v>-0.04369287891605785</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06722565533273453</v>
+        <v>-0.06903271845176606</v>
       </c>
       <c r="C34">
-        <v>-0.05209530944536319</v>
+        <v>-0.01323016997432478</v>
       </c>
       <c r="D34">
-        <v>-0.04590531366538834</v>
+        <v>0.09437964525853067</v>
       </c>
       <c r="E34">
-        <v>-0.09054805983257797</v>
+        <v>0.02783245060582786</v>
       </c>
       <c r="F34">
-        <v>-0.02157211218368146</v>
+        <v>-0.05257357747926012</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01680014671355697</v>
+        <v>-0.02437154569419088</v>
       </c>
       <c r="C35">
-        <v>-0.01647657535027897</v>
+        <v>-0.002673127075953305</v>
       </c>
       <c r="D35">
-        <v>-0.0001339811067865346</v>
+        <v>0.01021964016935301</v>
       </c>
       <c r="E35">
-        <v>-0.03060046006103221</v>
+        <v>0.01143116684775348</v>
       </c>
       <c r="F35">
-        <v>-0.00637710224338637</v>
+        <v>-0.01233546929941338</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02589654170426744</v>
+        <v>-0.02534170379118258</v>
       </c>
       <c r="C36">
-        <v>-0.01985994557542169</v>
+        <v>-0.007399897595943568</v>
       </c>
       <c r="D36">
-        <v>0.01336196750258594</v>
+        <v>0.03836183697240912</v>
       </c>
       <c r="E36">
-        <v>-0.08513192671881141</v>
+        <v>0.01463526952169682</v>
       </c>
       <c r="F36">
-        <v>-0.003707610604491832</v>
+        <v>-0.009710048593662127</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02385465108695539</v>
+        <v>-0.002989392090857353</v>
       </c>
       <c r="C38">
-        <v>-0.05043979167139771</v>
+        <v>-0.000558982939477196</v>
       </c>
       <c r="D38">
-        <v>0.02866032524590619</v>
+        <v>0.003192944423395165</v>
       </c>
       <c r="E38">
-        <v>0.1000735154513826</v>
+        <v>0.004167799863701502</v>
       </c>
       <c r="F38">
-        <v>0.08947050083310205</v>
+        <v>0.00322174339240163</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09880220282259958</v>
+        <v>-0.1118051104917173</v>
       </c>
       <c r="C39">
-        <v>-0.0876279490104034</v>
+        <v>-0.01925802898758585</v>
       </c>
       <c r="D39">
-        <v>-0.1318583660474091</v>
+        <v>0.1470370329200831</v>
       </c>
       <c r="E39">
-        <v>-0.1608299177351842</v>
+        <v>0.04992541761635033</v>
       </c>
       <c r="F39">
-        <v>0.09498576967240305</v>
+        <v>-0.03904522979666104</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02785998956677956</v>
+        <v>-0.03717862251681816</v>
       </c>
       <c r="C40">
-        <v>-0.05878791884959093</v>
+        <v>-0.007771808894321334</v>
       </c>
       <c r="D40">
-        <v>0.0253318802515492</v>
+        <v>0.02860294963298796</v>
       </c>
       <c r="E40">
-        <v>-0.03728576876999247</v>
+        <v>0.0009211922296784559</v>
       </c>
       <c r="F40">
-        <v>-0.08098440744691215</v>
+        <v>0.01784905930953406</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03382679432693091</v>
+        <v>-0.02633718290092113</v>
       </c>
       <c r="C41">
-        <v>-0.02420566419216968</v>
+        <v>-0.006833110699110551</v>
       </c>
       <c r="D41">
-        <v>-0.019812994505135</v>
+        <v>0.011176978769587</v>
       </c>
       <c r="E41">
-        <v>-0.006873693829280935</v>
+        <v>0.01111678496756503</v>
       </c>
       <c r="F41">
-        <v>0.02535364221893568</v>
+        <v>0.01220457616171026</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04747732890482987</v>
+        <v>-0.04324515320185986</v>
       </c>
       <c r="C43">
-        <v>-0.04622443119027324</v>
+        <v>-0.007297974272512</v>
       </c>
       <c r="D43">
-        <v>0.01006497990711782</v>
+        <v>0.02198341934324727</v>
       </c>
       <c r="E43">
-        <v>-0.02792401001639519</v>
+        <v>0.02586204904686781</v>
       </c>
       <c r="F43">
-        <v>0.05196796236465623</v>
+        <v>0.01147866191387908</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09662732435002461</v>
+        <v>-0.07371566681389188</v>
       </c>
       <c r="C44">
-        <v>-0.08917738474384508</v>
+        <v>-0.02317210632637106</v>
       </c>
       <c r="D44">
-        <v>0.072666758706141</v>
+        <v>0.0995411357683033</v>
       </c>
       <c r="E44">
-        <v>-0.08401628447610375</v>
+        <v>0.06658389906645268</v>
       </c>
       <c r="F44">
-        <v>-0.06533237248145604</v>
+        <v>-0.1813071496494785</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03728439366503879</v>
+        <v>-0.02391172883107746</v>
       </c>
       <c r="C46">
-        <v>-0.03864098185748675</v>
+        <v>-0.004341345531004368</v>
       </c>
       <c r="D46">
-        <v>0.04318077876507401</v>
+        <v>0.01236749990723629</v>
       </c>
       <c r="E46">
-        <v>-0.03678192005804624</v>
+        <v>0.02170783844892597</v>
       </c>
       <c r="F46">
-        <v>-0.04452755920148691</v>
+        <v>0.002020134361222373</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05449740296835123</v>
+        <v>-0.05302652029500614</v>
       </c>
       <c r="C47">
-        <v>-0.04782830442261725</v>
+        <v>-0.003597198971975377</v>
       </c>
       <c r="D47">
-        <v>-0.001239933814301284</v>
+        <v>0.01265806766607755</v>
       </c>
       <c r="E47">
-        <v>-0.02291868718913583</v>
+        <v>0.02264706630902037</v>
       </c>
       <c r="F47">
-        <v>0.01586594466539098</v>
+        <v>0.04711179899065552</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04589132981246734</v>
+        <v>-0.04818285469153066</v>
       </c>
       <c r="C48">
-        <v>-0.01589194769078949</v>
+        <v>-0.003573722719961601</v>
       </c>
       <c r="D48">
-        <v>-0.01384412831632266</v>
+        <v>0.04476097471027774</v>
       </c>
       <c r="E48">
-        <v>-0.08774475414033074</v>
+        <v>-0.009396442202308399</v>
       </c>
       <c r="F48">
-        <v>-0.04880303851054738</v>
+        <v>-0.01772907427063331</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2340971269256648</v>
+        <v>-0.2057825871497597</v>
       </c>
       <c r="C49">
-        <v>-0.0484772403552428</v>
+        <v>-0.01679123412714803</v>
       </c>
       <c r="D49">
-        <v>-0.02533314577250649</v>
+        <v>-0.006246723131541091</v>
       </c>
       <c r="E49">
-        <v>0.3116735800550478</v>
+        <v>0.0432611952165143</v>
       </c>
       <c r="F49">
-        <v>0.04327365193834365</v>
+        <v>-0.03397894966324231</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03579582367585465</v>
+        <v>-0.04880462466659892</v>
       </c>
       <c r="C50">
-        <v>-0.05044770336232898</v>
+        <v>-0.01144677349325027</v>
       </c>
       <c r="D50">
-        <v>-0.0123733809495616</v>
+        <v>0.02661746350117568</v>
       </c>
       <c r="E50">
-        <v>-0.06150497916590653</v>
+        <v>0.02847979535035693</v>
       </c>
       <c r="F50">
-        <v>0.01489278415694707</v>
+        <v>-0.006722611912263354</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02850126123924681</v>
+        <v>-0.003311022987476405</v>
       </c>
       <c r="C51">
-        <v>-0.002839335161224514</v>
+        <v>-0.0007846539482912027</v>
       </c>
       <c r="D51">
-        <v>-0.001228717297077076</v>
+        <v>-0.001475692444181884</v>
       </c>
       <c r="E51">
-        <v>0.04983973747532199</v>
+        <v>0.001452084011015686</v>
       </c>
       <c r="F51">
-        <v>-0.005222758220239344</v>
+        <v>-0.004582512191337937</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03160323154445874</v>
+        <v>-0.1418368844096284</v>
       </c>
       <c r="C52">
-        <v>-0.02154397426605734</v>
+        <v>-0.01275838116091517</v>
       </c>
       <c r="D52">
-        <v>-0.02171377007551915</v>
+        <v>0.04972826615079298</v>
       </c>
       <c r="E52">
-        <v>-0.01032726953885557</v>
+        <v>0.01671858905231379</v>
       </c>
       <c r="F52">
-        <v>0.02108883092953392</v>
+        <v>-0.03010793503048747</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1467368179384208</v>
+        <v>-0.172941827252388</v>
       </c>
       <c r="C53">
-        <v>-0.06404847969038627</v>
+        <v>-0.01555616493685966</v>
       </c>
       <c r="D53">
-        <v>0.02162003109631384</v>
+        <v>0.01595483053465895</v>
       </c>
       <c r="E53">
-        <v>0.0599350851097282</v>
+        <v>0.03849037916137124</v>
       </c>
       <c r="F53">
-        <v>0.08716945454859576</v>
+        <v>-0.05820781486851487</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06250196636882326</v>
+        <v>-0.02265952157521698</v>
       </c>
       <c r="C54">
-        <v>-0.04315377530847662</v>
+        <v>-0.01311892867546841</v>
       </c>
       <c r="D54">
-        <v>7.564675887116982e-05</v>
+        <v>0.03052031117460169</v>
       </c>
       <c r="E54">
-        <v>-0.1319980902489055</v>
+        <v>0.01370876701759078</v>
       </c>
       <c r="F54">
-        <v>-0.05975432911343108</v>
+        <v>-0.0003135984205077499</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.0827931768730788</v>
+        <v>-0.1144494652455423</v>
       </c>
       <c r="C55">
-        <v>-0.06014725534083019</v>
+        <v>-0.01460260927650938</v>
       </c>
       <c r="D55">
-        <v>-0.03132464731327125</v>
+        <v>0.01517935322949749</v>
       </c>
       <c r="E55">
-        <v>0.01079856006998091</v>
+        <v>0.03036109459108034</v>
       </c>
       <c r="F55">
-        <v>0.02318802835495306</v>
+        <v>-0.04579906019525243</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1398283016374859</v>
+        <v>-0.1779516797481223</v>
       </c>
       <c r="C56">
-        <v>-0.1020659315235083</v>
+        <v>-0.01304854508514408</v>
       </c>
       <c r="D56">
-        <v>-0.01438609408048386</v>
+        <v>0.01203623868599245</v>
       </c>
       <c r="E56">
-        <v>0.03527022537641295</v>
+        <v>0.04317762330765235</v>
       </c>
       <c r="F56">
-        <v>0.05719658041390617</v>
+        <v>-0.02827027917452888</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03106346209154469</v>
+        <v>-0.04732387890989156</v>
       </c>
       <c r="C58">
-        <v>-0.04016164016899325</v>
+        <v>-0.003339274278771264</v>
       </c>
       <c r="D58">
-        <v>0.02866091869094573</v>
+        <v>0.06400413425479522</v>
       </c>
       <c r="E58">
-        <v>-0.04622046452583115</v>
+        <v>0.01501233570941289</v>
       </c>
       <c r="F58">
-        <v>0.01119840155144954</v>
+        <v>0.04245792015350018</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.215921899334754</v>
+        <v>-0.1699446119468244</v>
       </c>
       <c r="C59">
-        <v>0.2307797782259445</v>
+        <v>-0.01251047946797903</v>
       </c>
       <c r="D59">
-        <v>-0.05866311657075245</v>
+        <v>-0.2305862007186989</v>
       </c>
       <c r="E59">
-        <v>0.01126681309495732</v>
+        <v>-0.04745273330037435</v>
       </c>
       <c r="F59">
-        <v>-0.04075245553496309</v>
+        <v>0.03026694535928677</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2318160283355158</v>
+        <v>-0.2393567828177781</v>
       </c>
       <c r="C60">
-        <v>-0.1427517484823904</v>
+        <v>0.004292961056906588</v>
       </c>
       <c r="D60">
-        <v>-0.07195937067760642</v>
+        <v>0.05174644540487121</v>
       </c>
       <c r="E60">
-        <v>0.1141237675598844</v>
+        <v>0.01311681355004323</v>
       </c>
       <c r="F60">
-        <v>-0.003475530882187353</v>
+        <v>0.04283649895495754</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09553641792431476</v>
+        <v>-0.08598790103042379</v>
       </c>
       <c r="C61">
-        <v>-0.07347952439045549</v>
+        <v>-0.01503182242826577</v>
       </c>
       <c r="D61">
-        <v>-0.07716600939046143</v>
+        <v>0.1070740426243339</v>
       </c>
       <c r="E61">
-        <v>-0.1377418051945401</v>
+        <v>0.03314086907451121</v>
       </c>
       <c r="F61">
-        <v>0.0193477561488347</v>
+        <v>-0.02446042417160014</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.129361712053761</v>
+        <v>-0.1689876768391662</v>
       </c>
       <c r="C62">
-        <v>-0.0730093151262905</v>
+        <v>-0.01701290573735623</v>
       </c>
       <c r="D62">
-        <v>0.00765853127509657</v>
+        <v>0.01314062786051871</v>
       </c>
       <c r="E62">
-        <v>0.06703475828780117</v>
+        <v>0.03910336124968266</v>
       </c>
       <c r="F62">
-        <v>0.05833719666657147</v>
+        <v>-0.01078704898078916</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04895051470076634</v>
+        <v>-0.04270872702211245</v>
       </c>
       <c r="C63">
-        <v>-0.02271505709106822</v>
+        <v>-0.004391750148720714</v>
       </c>
       <c r="D63">
-        <v>-0.01289181981213722</v>
+        <v>0.04675423010468224</v>
       </c>
       <c r="E63">
-        <v>-0.07729882589472303</v>
+        <v>0.01374602857576576</v>
       </c>
       <c r="F63">
-        <v>0.007485829587735002</v>
+        <v>-0.01089252457063703</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0946725263308533</v>
+        <v>-0.1121437501540779</v>
       </c>
       <c r="C64">
-        <v>-0.05721617081969438</v>
+        <v>-0.01200228557312527</v>
       </c>
       <c r="D64">
-        <v>-0.002839701418839349</v>
+        <v>0.03874317643837455</v>
       </c>
       <c r="E64">
-        <v>-0.06518141096050176</v>
+        <v>0.01918841196861876</v>
       </c>
       <c r="F64">
-        <v>0.01842220856964624</v>
+        <v>-0.01697679297931693</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1199823645114213</v>
+        <v>-0.1429305815675878</v>
       </c>
       <c r="C65">
-        <v>-0.03953474855988332</v>
+        <v>-0.03062907148555062</v>
       </c>
       <c r="D65">
-        <v>-0.013111106705145</v>
+        <v>-0.04690906235348871</v>
       </c>
       <c r="E65">
-        <v>-0.09044003512067514</v>
+        <v>0.003408745838434867</v>
       </c>
       <c r="F65">
-        <v>0.04244957585121907</v>
+        <v>-0.04292641505068834</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1097502189148152</v>
+        <v>-0.1338443734453647</v>
       </c>
       <c r="C66">
-        <v>-0.120530528448392</v>
+        <v>-0.01679361183189126</v>
       </c>
       <c r="D66">
-        <v>-0.1182426817746927</v>
+        <v>0.1342507852270624</v>
       </c>
       <c r="E66">
-        <v>-0.1248014626469382</v>
+        <v>0.05922843371130049</v>
       </c>
       <c r="F66">
-        <v>0.09872915054020366</v>
+        <v>-0.04397057828629203</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07945440780980413</v>
+        <v>-0.06539495128728547</v>
       </c>
       <c r="C67">
-        <v>-0.06043397544884722</v>
+        <v>-0.00438960878120426</v>
       </c>
       <c r="D67">
-        <v>0.03612953258049359</v>
+        <v>0.05457884846160504</v>
       </c>
       <c r="E67">
-        <v>0.0991698672745225</v>
+        <v>0.02049098384148482</v>
       </c>
       <c r="F67">
-        <v>0.1188470793989008</v>
+        <v>0.04305243525293653</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1326824926854447</v>
+        <v>-0.1114253083490806</v>
       </c>
       <c r="C68">
-        <v>0.264110792081936</v>
+        <v>-0.02163378755682919</v>
       </c>
       <c r="D68">
-        <v>-0.02913799694371668</v>
+        <v>-0.2709494209831991</v>
       </c>
       <c r="E68">
-        <v>-0.05738356267807158</v>
+        <v>-0.08602595744377463</v>
       </c>
       <c r="F68">
-        <v>0.006195378248666936</v>
+        <v>-0.04990631181112606</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04294634899040822</v>
+        <v>-0.04078151842040767</v>
       </c>
       <c r="C69">
-        <v>-0.01478171039220751</v>
+        <v>-0.001409023108814647</v>
       </c>
       <c r="D69">
-        <v>0.00296480064011708</v>
+        <v>0.008947342515914633</v>
       </c>
       <c r="E69">
-        <v>-0.01222037368414348</v>
+        <v>0.02569322030024894</v>
       </c>
       <c r="F69">
-        <v>0.03596788251792327</v>
+        <v>0.01707328394932819</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05058990986030436</v>
+        <v>-0.06443981789525739</v>
       </c>
       <c r="C70">
-        <v>-0.0611726717081968</v>
+        <v>0.02672318441908262</v>
       </c>
       <c r="D70">
-        <v>-0.0280686324552577</v>
+        <v>0.02264479301406869</v>
       </c>
       <c r="E70">
-        <v>-0.04405059378124684</v>
+        <v>-0.04595462643099465</v>
       </c>
       <c r="F70">
-        <v>0.00371516363740792</v>
+        <v>0.3425504823243478</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1513025595865724</v>
+        <v>-0.1307109801419015</v>
       </c>
       <c r="C71">
-        <v>0.2748732586192794</v>
+        <v>-0.02559373337202248</v>
       </c>
       <c r="D71">
-        <v>-0.02360720161144307</v>
+        <v>-0.2872742433842704</v>
       </c>
       <c r="E71">
-        <v>-0.0638448885911692</v>
+        <v>-0.09342332932291329</v>
       </c>
       <c r="F71">
-        <v>0.02000000683001917</v>
+        <v>-0.05183223902580168</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1256839761986172</v>
+        <v>-0.137628599601465</v>
       </c>
       <c r="C72">
-        <v>-0.02169829799856651</v>
+        <v>-0.0237937753061101</v>
       </c>
       <c r="D72">
-        <v>-0.0002736652463742632</v>
+        <v>0.006660146814406658</v>
       </c>
       <c r="E72">
-        <v>-0.03901387231087395</v>
+        <v>0.04206860908546706</v>
       </c>
       <c r="F72">
-        <v>0.05452765610267667</v>
+        <v>-0.02340524990331028</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2219029266640692</v>
+        <v>-0.2086242537337917</v>
       </c>
       <c r="C73">
-        <v>-0.1046158898134533</v>
+        <v>-0.01131383857086827</v>
       </c>
       <c r="D73">
-        <v>-0.1197375901468452</v>
+        <v>0.02056141843078461</v>
       </c>
       <c r="E73">
-        <v>0.5129743941538438</v>
+        <v>0.06963812860147216</v>
       </c>
       <c r="F73">
-        <v>0.1693605399125671</v>
+        <v>-0.02437722672673658</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0916249925968361</v>
+        <v>-0.09407086873329337</v>
       </c>
       <c r="C74">
-        <v>-0.08692263470991562</v>
+        <v>-0.01196854171811096</v>
       </c>
       <c r="D74">
-        <v>0.0009324155770420168</v>
+        <v>0.02651869835948241</v>
       </c>
       <c r="E74">
-        <v>0.03885027509012171</v>
+        <v>0.050086760918295</v>
       </c>
       <c r="F74">
-        <v>0.1033789984164348</v>
+        <v>-0.03986800185658328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09279489233818755</v>
+        <v>-0.1306426713531649</v>
       </c>
       <c r="C75">
-        <v>-0.06987052238759697</v>
+        <v>-0.02628551665639428</v>
       </c>
       <c r="D75">
-        <v>-0.000636818778578491</v>
+        <v>0.03559345803299482</v>
       </c>
       <c r="E75">
-        <v>0.002996140062064225</v>
+        <v>0.06038787131619959</v>
       </c>
       <c r="F75">
-        <v>0.00792410775771815</v>
+        <v>-0.007380575528332121</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06393061749069198</v>
+        <v>-0.007769142161909676</v>
       </c>
       <c r="C76">
-        <v>-0.06875941490201602</v>
+        <v>-0.00173422619487866</v>
       </c>
       <c r="D76">
-        <v>0.007800527427985837</v>
+        <v>0.003263116101457617</v>
       </c>
       <c r="E76">
-        <v>0.05030104358171335</v>
+        <v>0.008060421946215411</v>
       </c>
       <c r="F76">
-        <v>0.01764952209757992</v>
+        <v>-0.003929131990121731</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06761040616702144</v>
+        <v>-0.08102425874956522</v>
       </c>
       <c r="C77">
-        <v>-0.01898992382549026</v>
+        <v>-0.01170055898611439</v>
       </c>
       <c r="D77">
-        <v>-0.03725127334193171</v>
+        <v>0.1021641329058304</v>
       </c>
       <c r="E77">
-        <v>-0.1593927534925044</v>
+        <v>0.0302635898105965</v>
       </c>
       <c r="F77">
-        <v>-0.07152037900880566</v>
+        <v>-0.03468859987027501</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1742218160639074</v>
+        <v>-0.109165796047818</v>
       </c>
       <c r="C78">
-        <v>-0.1703366338062514</v>
+        <v>-0.04377441668087265</v>
       </c>
       <c r="D78">
-        <v>0.1650084249886697</v>
+        <v>0.119699069079957</v>
       </c>
       <c r="E78">
-        <v>-0.03713753338205709</v>
+        <v>0.09193315671963115</v>
       </c>
       <c r="F78">
-        <v>-0.6298864392982885</v>
+        <v>-0.0746957240932508</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1287565854619052</v>
+        <v>-0.1626999795398178</v>
       </c>
       <c r="C79">
-        <v>-0.08619699029919134</v>
+        <v>-0.02008222294076813</v>
       </c>
       <c r="D79">
-        <v>0.01310458203949325</v>
+        <v>0.02091875909480555</v>
       </c>
       <c r="E79">
-        <v>0.01378684880088902</v>
+        <v>0.04962055069444907</v>
       </c>
       <c r="F79">
-        <v>0.03455158622598251</v>
+        <v>-0.004676232983818835</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07204191820196849</v>
+        <v>-0.08047523735061093</v>
       </c>
       <c r="C80">
-        <v>-0.05364306465520292</v>
+        <v>0.0008489123356769269</v>
       </c>
       <c r="D80">
-        <v>-0.08219011675105016</v>
+        <v>0.05772329471713777</v>
       </c>
       <c r="E80">
-        <v>-0.06310644835738674</v>
+        <v>0.03034170567568606</v>
       </c>
       <c r="F80">
-        <v>0.04454720892633912</v>
+        <v>0.01131047537915885</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1262811718400687</v>
+        <v>-0.1226598332827211</v>
       </c>
       <c r="C81">
-        <v>-0.06605882566498798</v>
+        <v>-0.03008587167707956</v>
       </c>
       <c r="D81">
-        <v>0.009149734546681864</v>
+        <v>0.02206382480359555</v>
       </c>
       <c r="E81">
-        <v>-0.06278388283849969</v>
+        <v>0.05966587533492525</v>
       </c>
       <c r="F81">
-        <v>0.0271586529479039</v>
+        <v>0.00343349668554115</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1182605839556319</v>
+        <v>-0.1622927877282648</v>
       </c>
       <c r="C82">
-        <v>-0.06485308019633113</v>
+        <v>-0.02040654706639035</v>
       </c>
       <c r="D82">
-        <v>-0.005340638945247719</v>
+        <v>0.01893284785852283</v>
       </c>
       <c r="E82">
-        <v>0.002978848756935375</v>
+        <v>0.03631619202179739</v>
       </c>
       <c r="F82">
-        <v>0.09925503515182933</v>
+        <v>-0.05348985495934892</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08029702479118835</v>
+        <v>-0.06549317872700217</v>
       </c>
       <c r="C83">
-        <v>-0.08894024297559421</v>
+        <v>-0.00452239614271144</v>
       </c>
       <c r="D83">
-        <v>-0.02015345316757494</v>
+        <v>0.04736767618300631</v>
       </c>
       <c r="E83">
-        <v>-0.0419914033636586</v>
+        <v>0.003211466037247851</v>
       </c>
       <c r="F83">
-        <v>0.09118750361531974</v>
+        <v>0.03528336652536564</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04702749445495604</v>
+        <v>-0.06057516945452038</v>
       </c>
       <c r="C84">
-        <v>0.06654522695226499</v>
+        <v>-0.01170542419246671</v>
       </c>
       <c r="D84">
-        <v>-0.04631658524282357</v>
+        <v>0.06066084937405516</v>
       </c>
       <c r="E84">
-        <v>0.007630187451523877</v>
+        <v>-0.003880205854740487</v>
       </c>
       <c r="F84">
-        <v>-0.2235424870351601</v>
+        <v>-0.01618902396746803</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1181180578943493</v>
+        <v>-0.1382776089382909</v>
       </c>
       <c r="C85">
-        <v>-0.05495665057464445</v>
+        <v>-0.02552851511589255</v>
       </c>
       <c r="D85">
-        <v>0.002249061612708688</v>
+        <v>0.01694087273263322</v>
       </c>
       <c r="E85">
-        <v>0.01744999919981089</v>
+        <v>0.04071927435104014</v>
       </c>
       <c r="F85">
-        <v>0.05292724341667843</v>
+        <v>-0.03993889647269266</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08571414744469658</v>
+        <v>-0.0993670417703876</v>
       </c>
       <c r="C86">
-        <v>-0.006482528048947553</v>
+        <v>0.006907284693623695</v>
       </c>
       <c r="D86">
-        <v>0.02886097911402395</v>
+        <v>0.01529392095872882</v>
       </c>
       <c r="E86">
-        <v>0.2406493037807236</v>
+        <v>0.1291019108012905</v>
       </c>
       <c r="F86">
-        <v>-0.4998931295400418</v>
+        <v>0.8302856209449065</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1208430719040911</v>
+        <v>-0.1003956680042241</v>
       </c>
       <c r="C87">
-        <v>-0.07402024633297774</v>
+        <v>-0.0259528894729889</v>
       </c>
       <c r="D87">
-        <v>0.0102147690162849</v>
+        <v>0.07209009294288785</v>
       </c>
       <c r="E87">
-        <v>-0.05921349579302315</v>
+        <v>-0.05291897011014819</v>
       </c>
       <c r="F87">
-        <v>-0.01617770361785123</v>
+        <v>-0.09417642026529911</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05823262090262971</v>
+        <v>-0.06184859914477764</v>
       </c>
       <c r="C88">
-        <v>-0.06108512414900435</v>
+        <v>-0.003447047560876803</v>
       </c>
       <c r="D88">
-        <v>-0.03178780504368444</v>
+        <v>0.05523956502059769</v>
       </c>
       <c r="E88">
-        <v>-0.02646961200771409</v>
+        <v>0.02623847760612002</v>
       </c>
       <c r="F88">
-        <v>0.03208291959684539</v>
+        <v>-0.006812306449857986</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2342269562118649</v>
+        <v>-0.1326400167009778</v>
       </c>
       <c r="C89">
-        <v>0.367477584639394</v>
+        <v>-0.004644533705256356</v>
       </c>
       <c r="D89">
-        <v>0.03655299726593946</v>
+        <v>-0.2713563644785535</v>
       </c>
       <c r="E89">
-        <v>0.01596539912990873</v>
+        <v>-0.09208030623350992</v>
       </c>
       <c r="F89">
-        <v>-0.04452284949656619</v>
+        <v>-0.03208838048707197</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1567162111996376</v>
+        <v>-0.1425481234176623</v>
       </c>
       <c r="C90">
-        <v>0.2594333520369573</v>
+        <v>-0.02109580311558899</v>
       </c>
       <c r="D90">
-        <v>-0.02043882858944455</v>
+        <v>-0.2721910498779991</v>
       </c>
       <c r="E90">
-        <v>-0.01273385441951427</v>
+        <v>-0.1046814788160347</v>
       </c>
       <c r="F90">
-        <v>0.01898046078225904</v>
+        <v>-0.03682478453287927</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07101690400448184</v>
+        <v>-0.116867400847056</v>
       </c>
       <c r="C91">
-        <v>-0.0721979197987456</v>
+        <v>-0.01618719159534808</v>
       </c>
       <c r="D91">
-        <v>0.0001669894721585622</v>
+        <v>-0.002187067688785169</v>
       </c>
       <c r="E91">
-        <v>0.009605370209609177</v>
+        <v>0.05898812379215704</v>
       </c>
       <c r="F91">
-        <v>-0.00661784030258282</v>
+        <v>0.0309601426014994</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.173207596378014</v>
+        <v>-0.1451279211378044</v>
       </c>
       <c r="C92">
-        <v>0.2920703535329479</v>
+        <v>-0.01263171988160836</v>
       </c>
       <c r="D92">
-        <v>0.01800627650404893</v>
+        <v>-0.304818613880837</v>
       </c>
       <c r="E92">
-        <v>-0.06651735803056374</v>
+        <v>-0.1013503112952232</v>
       </c>
       <c r="F92">
-        <v>-0.0296907361913075</v>
+        <v>-0.02746569145185482</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1757576157070532</v>
+        <v>-0.1465632441327831</v>
       </c>
       <c r="C93">
-        <v>0.2986913416736557</v>
+        <v>-0.01774481052554133</v>
       </c>
       <c r="D93">
-        <v>-0.04943884881231334</v>
+        <v>-0.2767093785273635</v>
       </c>
       <c r="E93">
-        <v>-0.0302782123590315</v>
+        <v>-0.07151478431306382</v>
       </c>
       <c r="F93">
-        <v>-0.00718711938627801</v>
+        <v>-0.02753659899664384</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1165774318414192</v>
+        <v>-0.1339463631519756</v>
       </c>
       <c r="C94">
-        <v>-0.08700575127728204</v>
+        <v>-0.02372316466061654</v>
       </c>
       <c r="D94">
-        <v>0.0156501844979359</v>
+        <v>0.04867934866169534</v>
       </c>
       <c r="E94">
-        <v>0.0267316384709536</v>
+        <v>0.06187725290933092</v>
       </c>
       <c r="F94">
-        <v>0.03996329023115856</v>
+        <v>-0.02605600468556778</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1359410767198503</v>
+        <v>-0.1270272950522014</v>
       </c>
       <c r="C95">
-        <v>-0.0679867205049144</v>
+        <v>-0.006295216382849593</v>
       </c>
       <c r="D95">
-        <v>0.008495220928348824</v>
+        <v>0.08980563383064492</v>
       </c>
       <c r="E95">
-        <v>-0.05118412280317772</v>
+        <v>0.04099844359860025</v>
       </c>
       <c r="F95">
-        <v>-0.1307452147540751</v>
+        <v>0.01029310961290091</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0001023221948851616</v>
+        <v>-0.09488790478045035</v>
       </c>
       <c r="C96">
-        <v>-0.001822742724137142</v>
+        <v>0.9894515819890937</v>
       </c>
       <c r="D96">
-        <v>-0.0002523445504092886</v>
+        <v>-0.01516086440305853</v>
       </c>
       <c r="E96">
-        <v>0.001407197927275462</v>
+        <v>0.05984016131293543</v>
       </c>
       <c r="F96">
-        <v>-0.002179236362560443</v>
+        <v>-0.04967845903114625</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1221665784316631</v>
+        <v>-0.1875633526319153</v>
       </c>
       <c r="C97">
-        <v>0.03282028370592369</v>
+        <v>0.01244167839166378</v>
       </c>
       <c r="D97">
-        <v>0.0220773387766159</v>
+        <v>-0.01196558756904849</v>
       </c>
       <c r="E97">
-        <v>-0.2670198592517296</v>
+        <v>0.0151210154874086</v>
       </c>
       <c r="F97">
-        <v>0.2324721476801398</v>
+        <v>0.1734920394492167</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2530661622606708</v>
+        <v>-0.2065386687050687</v>
       </c>
       <c r="C98">
-        <v>-0.09375254918938204</v>
+        <v>-0.006907584723505315</v>
       </c>
       <c r="D98">
-        <v>0.08053298415106024</v>
+        <v>0.01345526113363537</v>
       </c>
       <c r="E98">
-        <v>0.2568853965792162</v>
+        <v>-0.089678007297781</v>
       </c>
       <c r="F98">
-        <v>0.06786833342046568</v>
+        <v>0.1356330087983261</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06951335137628845</v>
+        <v>-0.05766999483724088</v>
       </c>
       <c r="C99">
-        <v>-0.06045085946874676</v>
+        <v>0.003050030760388229</v>
       </c>
       <c r="D99">
-        <v>0.01097975993934349</v>
+        <v>0.0328933196586109</v>
       </c>
       <c r="E99">
-        <v>0.03065503804990355</v>
+        <v>0.02679412370496911</v>
       </c>
       <c r="F99">
-        <v>0.002252380319146972</v>
+        <v>-0.00383558361895558</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1236154857211608</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04743736908454468</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3255790131322149</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9050107810944542</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05544605126459462</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03790438886794543</v>
+        <v>-0.02719822992613566</v>
       </c>
       <c r="C101">
-        <v>-0.03263314887329809</v>
+        <v>-0.009301349505069969</v>
       </c>
       <c r="D101">
-        <v>-0.01703702723434661</v>
+        <v>0.02785764882599716</v>
       </c>
       <c r="E101">
-        <v>-0.05286537156319411</v>
+        <v>0.007743099466260828</v>
       </c>
       <c r="F101">
-        <v>-0.02539120431926374</v>
+        <v>0.00825956547608621</v>
       </c>
     </row>
     <row r="102" spans="1:6">
